--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10.021573994954517</v>
+        <v>10.021573994232716</v>
       </c>
       <c r="C2">
-        <v>15.933802272596894</v>
+        <v>15.933802270182687</v>
       </c>
       <c r="D2">
-        <v>29.646693690295844</v>
+        <v>29.646693673144615</v>
       </c>
       <c r="E2">
-        <v>43.663266815611308</v>
+        <v>43.66326681270106</v>
       </c>
       <c r="F2">
-        <v>24.272437716117608</v>
+        <v>24.272437677066208</v>
       </c>
       <c r="G2">
-        <v>10.261916563903089</v>
+        <v>10.261916523202022</v>
       </c>
       <c r="H2">
-        <v>18.824951466494728</v>
+        <v>18.824951388859777</v>
       </c>
       <c r="I2">
-        <v>22.848296717066265</v>
+        <v>22.848296718966232</v>
       </c>
       <c r="J2">
-        <v>26.412568187498685</v>
+        <v>26.41256818735901</v>
       </c>
       <c r="K2">
-        <v>9.6699186099570067</v>
+        <v>9.6699185900554419</v>
       </c>
       <c r="L2">
-        <v>6.3948783004557086</v>
+        <v>6.3948783024244049</v>
       </c>
       <c r="M2">
-        <v>-5.6161610079251849</v>
+        <v>-5.6161610060016702</v>
       </c>
       <c r="N2">
-        <v>24.611200088417299</v>
+        <v>24.611200044075481</v>
       </c>
       <c r="O2">
-        <v>24.450308596950933</v>
+        <v>24.450308648244217</v>
       </c>
       <c r="P2">
-        <v>32.567768235820992</v>
+        <v>32.567768180913667</v>
       </c>
       <c r="Q2">
-        <v>4.0633942000622643</v>
+        <v>4.0633941866928378</v>
       </c>
       <c r="R2">
-        <v>-5.0379295576869376</v>
+        <v>-5.0379295087167808</v>
       </c>
       <c r="S2">
-        <v>37.000144492225623</v>
+        <v>37.000144492030039</v>
       </c>
       <c r="T2">
-        <v>37.546645817501997</v>
+        <v>37.546645816826022</v>
       </c>
       <c r="U2">
-        <v>5.3266002903771597</v>
+        <v>5.326600266253501</v>
       </c>
       <c r="V2">
-        <v>20.717629514466555</v>
+        <v>20.717629509791532</v>
       </c>
       <c r="W2">
-        <v>-5.4479688255051384</v>
+        <v>-5.4479690301555239</v>
       </c>
       <c r="X2">
-        <v>8.7795004892837287</v>
+        <v>8.7795004823398362</v>
       </c>
       <c r="Y2">
-        <v>38.936720265302341</v>
+        <v>38.9367202335551</v>
       </c>
       <c r="Z2">
-        <v>21.694346045653933</v>
+        <v>21.694346004506183</v>
       </c>
       <c r="AA2">
-        <v>48.273731013594748</v>
+        <v>48.273730969283079</v>
       </c>
       <c r="AB2">
-        <v>35.746488979010586</v>
+        <v>35.746488892228825</v>
       </c>
       <c r="AC2">
-        <v>11.674763475210078</v>
+        <v>11.674763402637982</v>
       </c>
       <c r="AD2">
-        <v>55.439718466061791</v>
+        <v>55.439718503579307</v>
       </c>
       <c r="AE2">
-        <v>26.184537540368876</v>
+        <v>26.184537535206797</v>
       </c>
       <c r="AF2">
-        <v>28.924693421245017</v>
+        <v>28.924693353948328</v>
       </c>
       <c r="AG2">
-        <v>39.097237893727637</v>
+        <v>39.097237785302909</v>
       </c>
       <c r="AH2">
-        <v>33.778010152574176</v>
+        <v>33.778010103404199</v>
       </c>
       <c r="AI2">
-        <v>33.872113966529973</v>
+        <v>33.872113682551209</v>
       </c>
       <c r="AJ2">
-        <v>26.389791738136985</v>
+        <v>26.389791658884853</v>
       </c>
       <c r="AK2">
-        <v>31.951083866088105</v>
+        <v>31.951083822224195</v>
       </c>
       <c r="AL2">
-        <v>3.5609663570236672</v>
+        <v>3.5609662989991588</v>
       </c>
       <c r="AM2">
-        <v>35.204401554562445</v>
+        <v>35.204401339886694</v>
       </c>
       <c r="AN2">
-        <v>33.126962633371477</v>
+        <v>33.126962536287351</v>
       </c>
       <c r="AO2">
-        <v>57.25613392912188</v>
+        <v>57.256133973392274</v>
       </c>
       <c r="AP2">
-        <v>31.248293881494149</v>
+        <v>31.248293822622053</v>
       </c>
       <c r="AQ2">
-        <v>8.2319349780837534</v>
+        <v>8.2319348342120922</v>
       </c>
       <c r="AR2">
-        <v>39.224145098567874</v>
+        <v>39.224145101243238</v>
       </c>
       <c r="AS2">
-        <v>52.260950780175733</v>
+        <v>52.260950618974825</v>
       </c>
       <c r="AT2">
-        <v>19.898126016543969</v>
+        <v>19.898126168002523</v>
       </c>
       <c r="AU2">
-        <v>32.865661178545281</v>
+        <v>32.865661039615361</v>
       </c>
       <c r="AV2">
-        <v>35.422974776422876</v>
+        <v>35.422974850635171</v>
       </c>
       <c r="AW2">
-        <v>16.305117900376342</v>
+        <v>16.305117680598283</v>
       </c>
       <c r="AX2">
-        <v>42.414198906382296</v>
+        <v>42.414198789350131</v>
       </c>
       <c r="AY2">
-        <v>51.016543512953852</v>
+        <v>51.016543420492845</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15.304330830267448</v>
+        <v>15.304330589090199</v>
       </c>
       <c r="C3">
-        <v>18.536683219060436</v>
+        <v>18.536683203508307</v>
       </c>
       <c r="D3">
-        <v>35.540876346929288</v>
+        <v>35.5408761611572</v>
       </c>
       <c r="E3">
-        <v>33.214849823827237</v>
+        <v>33.214849791099525</v>
       </c>
       <c r="F3">
-        <v>17.563432028427655</v>
+        <v>17.563431975034632</v>
       </c>
       <c r="G3">
-        <v>27.232225284923061</v>
+        <v>27.232225251025266</v>
       </c>
       <c r="H3">
-        <v>4.4154256232615623</v>
+        <v>4.415425629762133</v>
       </c>
       <c r="I3">
-        <v>8.385609058501041</v>
+        <v>8.3856090355137543</v>
       </c>
       <c r="J3">
-        <v>32.208461037824016</v>
+        <v>32.208460956674038</v>
       </c>
       <c r="K3">
-        <v>59.306064200716058</v>
+        <v>59.306064187524655</v>
       </c>
       <c r="L3">
-        <v>38.831407572293664</v>
+        <v>38.831407511788989</v>
       </c>
       <c r="M3">
-        <v>5.1374504103141625</v>
+        <v>5.137486251461385</v>
       </c>
       <c r="N3">
-        <v>20.682618568406106</v>
+        <v>20.682618561610106</v>
       </c>
       <c r="O3">
-        <v>-18.232294713704785</v>
+        <v>-18.2322947181644</v>
       </c>
       <c r="P3">
-        <v>34.788400899819536</v>
+        <v>34.788400817364625</v>
       </c>
       <c r="Q3">
-        <v>16.511123328863889</v>
+        <v>16.511123257647871</v>
       </c>
       <c r="R3">
-        <v>8.8332511008075034</v>
+        <v>8.8332508674856403</v>
       </c>
       <c r="S3">
-        <v>31.230574268518296</v>
+        <v>31.230574214754554</v>
       </c>
       <c r="T3">
-        <v>36.76658922329392</v>
+        <v>36.766589166826627</v>
       </c>
       <c r="U3">
-        <v>20.204850153436961</v>
+        <v>20.204850097989365</v>
       </c>
       <c r="V3">
-        <v>25.073386643671689</v>
+        <v>25.073386632088674</v>
       </c>
       <c r="W3">
-        <v>4.5735000749151098</v>
+        <v>4.5734999841240063</v>
       </c>
       <c r="X3">
-        <v>-1.1731183458703709</v>
+        <v>-1.1731183731298778</v>
       </c>
       <c r="Y3">
-        <v>41.560171507136495</v>
+        <v>41.560171419565144</v>
       </c>
       <c r="Z3">
-        <v>24.182805296150086</v>
+        <v>24.182805259278165</v>
       </c>
       <c r="AA3">
-        <v>46.180931859425293</v>
+        <v>46.180931932918448</v>
       </c>
       <c r="AB3">
-        <v>38.946432418176244</v>
+        <v>38.946432407119744</v>
       </c>
       <c r="AC3">
-        <v>54.003721922867065</v>
+        <v>54.003721694275463</v>
       </c>
       <c r="AD3">
-        <v>55.894102425583924</v>
+        <v>55.89410243198656</v>
       </c>
       <c r="AE3">
-        <v>47.390016064793208</v>
+        <v>47.390015822936419</v>
       </c>
       <c r="AF3">
-        <v>29.786205992537894</v>
+        <v>29.786205868886277</v>
       </c>
       <c r="AG3">
-        <v>25.366510923009685</v>
+        <v>25.366510842364555</v>
       </c>
       <c r="AH3">
-        <v>16.104184498934192</v>
+        <v>16.104184452462658</v>
       </c>
       <c r="AI3">
-        <v>78.780046616019533</v>
+        <v>78.780046414373842</v>
       </c>
       <c r="AJ3">
-        <v>61.134537357988897</v>
+        <v>61.134537172170852</v>
       </c>
       <c r="AK3">
-        <v>42.017909613591584</v>
+        <v>42.017909289557217</v>
       </c>
       <c r="AL3">
-        <v>23.929074797653684</v>
+        <v>23.929074687311633</v>
       </c>
       <c r="AM3">
-        <v>31.903133038044707</v>
+        <v>31.903132892840148</v>
       </c>
       <c r="AN3">
-        <v>-4.0676210110715472</v>
+        <v>-4.0676210484665356</v>
       </c>
       <c r="AO3">
-        <v>55.376657253452436</v>
+        <v>55.376656873235277</v>
       </c>
       <c r="AP3">
-        <v>15.838754555460996</v>
+        <v>15.838754485640342</v>
       </c>
       <c r="AQ3">
-        <v>26.37743559960299</v>
+        <v>26.377435509759383</v>
       </c>
       <c r="AR3">
-        <v>47.320896723680384</v>
+        <v>47.320896748342989</v>
       </c>
       <c r="AS3">
-        <v>42.159062923933519</v>
+        <v>42.15906296076988</v>
       </c>
       <c r="AT3">
-        <v>34.057184261430329</v>
+        <v>34.05718411624116</v>
       </c>
       <c r="AU3">
-        <v>24.898109859552132</v>
+        <v>24.89810964189024</v>
       </c>
       <c r="AV3">
-        <v>28.199458695183814</v>
+        <v>28.199458482428085</v>
       </c>
       <c r="AW3">
-        <v>24.249452870870623</v>
+        <v>24.249451197550023</v>
       </c>
       <c r="AX3">
-        <v>23.050932492529718</v>
+        <v>23.050932109532056</v>
       </c>
       <c r="AY3">
-        <v>50.01575523501208</v>
+        <v>50.015755152753037</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>10.021573994232716</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>15.933802270182687</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>29.646693673144615</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>43.66326681270106</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>24.272437677066208</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>10.261916523202022</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>18.824951388859777</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>22.848296718966232</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>26.41256818735901</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>9.6699185900554419</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.3948783024244049</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-5.6161610060016702</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>24.611200044075481</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>24.450308648244217</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>32.567768180913667</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>4.0633941866928378</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-5.0379295087167808</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>37.000144492030039</v>
+        <v>26.847976311251809</v>
       </c>
       <c r="T2">
         <v>37.546645816826022</v>
@@ -588,55 +477,55 @@
         <v>21.694346004506183</v>
       </c>
       <c r="AA2">
-        <v>48.273730969283079</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>35.746488892228825</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>11.674763402637982</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>55.439718503579307</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>26.184537535206797</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>28.924693353948328</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>39.097237785302909</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>33.778010103404199</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>33.872113682551209</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>26.389791658884853</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>31.951083822224195</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>3.5609662989991588</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>35.204401339886694</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>33.126962536287351</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>57.256133973392274</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>31.248293822622053</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>8.2319348342120922</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>39.224145101243238</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>15.304330589090199</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>18.536683203508307</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>35.5408761611572</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>33.214849791099525</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>17.563431975034632</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>27.232225251025266</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>4.415425629762133</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>8.3856090355137543</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>32.208460956674038</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>59.306064187524655</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>38.831407511788989</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>5.137486251461385</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>20.682618561610106</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-18.2322947181644</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>34.788400817364625</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>16.511123257647871</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>8.8332508674856403</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>31.230574214754554</v>
@@ -743,55 +629,55 @@
         <v>24.182805259278165</v>
       </c>
       <c r="AA3">
-        <v>46.180931932918448</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>38.946432407119744</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>54.003721694275463</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>55.89410243198656</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>47.390015822936419</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>29.786205868886277</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>25.366510842364555</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>16.104184452462658</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>78.780046414373842</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>61.134537172170852</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>42.017909289557217</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>23.929074687311633</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>31.903132892840148</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-4.0676210484665356</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>55.376656873235277</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>15.838754485640342</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>26.377435509759383</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>47.320896748342989</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>10.021573994954517</v>
-      </c>
       <c r="C2">
-        <v>12.110462668459656</v>
-      </c>
-      <c r="D2">
-        <v>29.646693690295844</v>
-      </c>
-      <c r="E2">
-        <v>43.663266815611308</v>
+        <v>-5.0379295087167808</v>
       </c>
       <c r="F2">
         <v>24.272437716117608</v>
@@ -673,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15.304330830267448</v>
+        <v>-6.5016201590062561</v>
       </c>
       <c r="C3">
-        <v>18.536683219060436</v>
+        <v>8.8332508674856403</v>
       </c>
       <c r="D3">
-        <v>35.540876346929288</v>
+        <v>-0.7865532533276669</v>
       </c>
       <c r="E3">
-        <v>33.214849823827237</v>
+        <v>27.321245754272983</v>
       </c>
       <c r="F3">
         <v>17.563432028427655</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10.021573994954517</v>
-      </c>
-      <c r="C2">
-        <v>12.110462668459656</v>
+        <v>23.254962237594334</v>
       </c>
       <c r="D2">
-        <v>29.646693690295844</v>
-      </c>
-      <c r="E2">
-        <v>43.663266815611308</v>
+        <v>35.204401339886694</v>
       </c>
       <c r="F2">
         <v>24.272437716117608</v>
@@ -661,16 +650,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15.304330830267448</v>
+        <v>20.682618561610106</v>
       </c>
       <c r="C3">
-        <v>18.536683219060436</v>
+        <v>-6.5016201590062561</v>
       </c>
       <c r="D3">
-        <v>35.540876346929288</v>
+        <v>31.903132892840148</v>
       </c>
       <c r="E3">
-        <v>44.081937661517081</v>
+        <v>-0.7865532533276669</v>
       </c>
       <c r="F3">
         <v>17.563432028427655</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,136 +513,142 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>10.021573994232716</v>
+      </c>
+      <c r="C2">
+        <v>12.110462681129547</v>
+      </c>
+      <c r="D2">
+        <v>29.646693673144615</v>
+      </c>
+      <c r="E2">
+        <v>43.66326681270106</v>
+      </c>
+      <c r="F2">
+        <v>24.272437677066208</v>
+      </c>
+      <c r="G2">
+        <v>18.182982735014075</v>
+      </c>
+      <c r="H2">
+        <v>18.824951388859777</v>
+      </c>
+      <c r="I2">
+        <v>29.812144741677706</v>
+      </c>
+      <c r="J2">
+        <v>26.41256818735901</v>
+      </c>
+      <c r="K2">
+        <v>9.6699185900554419</v>
+      </c>
+      <c r="L2">
+        <v>11.023190364131759</v>
+      </c>
+      <c r="M2">
+        <v>3.7083030697183972</v>
+      </c>
+      <c r="N2">
         <v>23.254962237594334</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>35.768235095090375</v>
+      </c>
+      <c r="Q2">
+        <v>4.0633941866928378</v>
+      </c>
+      <c r="R2">
+        <v>-5.0379295087167808</v>
+      </c>
+      <c r="T2">
+        <v>30.749072885412112</v>
+      </c>
+      <c r="U2">
+        <v>5.326600266253501</v>
+      </c>
+      <c r="V2">
+        <v>28.573923873564627</v>
+      </c>
+      <c r="W2">
+        <v>-5.4479690301555239</v>
+      </c>
+      <c r="X2">
+        <v>8.7795004823398362</v>
+      </c>
+      <c r="Y2">
+        <v>38.9367202335551</v>
+      </c>
+      <c r="Z2">
+        <v>21.694346004506183</v>
+      </c>
+      <c r="AA2">
+        <v>48.273730969283079</v>
+      </c>
+      <c r="AB2">
+        <v>35.746488892228825</v>
+      </c>
+      <c r="AC2">
+        <v>11.674763402637982</v>
+      </c>
+      <c r="AD2">
+        <v>55.439718503579307</v>
+      </c>
+      <c r="AE2">
+        <v>26.184537535206797</v>
+      </c>
+      <c r="AF2">
+        <v>28.924693353948328</v>
+      </c>
+      <c r="AG2">
+        <v>39.097237785302909</v>
+      </c>
+      <c r="AH2">
+        <v>33.778010103404199</v>
+      </c>
+      <c r="AI2">
+        <v>33.872113682551209</v>
+      </c>
+      <c r="AJ2">
+        <v>26.389791658884853</v>
+      </c>
+      <c r="AK2">
+        <v>31.951083822224195</v>
+      </c>
+      <c r="AL2">
+        <v>3.5609662989991588</v>
+      </c>
+      <c r="AM2">
         <v>35.204401339886694</v>
       </c>
-      <c r="F2">
-        <v>24.272437716117608</v>
-      </c>
-      <c r="G2">
-        <v>18.182982854348438</v>
-      </c>
-      <c r="H2">
-        <v>18.824951466494728</v>
-      </c>
-      <c r="I2">
-        <v>29.812144726661373</v>
-      </c>
-      <c r="J2">
-        <v>26.412568187498685</v>
-      </c>
-      <c r="K2">
-        <v>9.6699186099570067</v>
-      </c>
-      <c r="L2">
-        <v>11.023190227942726</v>
-      </c>
-      <c r="M2">
-        <v>3.7083030723164692</v>
-      </c>
-      <c r="N2">
-        <v>23.254962303714581</v>
-      </c>
-      <c r="P2">
-        <v>35.768235182502366</v>
-      </c>
-      <c r="Q2">
-        <v>4.0633942000622643</v>
-      </c>
-      <c r="R2">
-        <v>-5.0379295576869376</v>
-      </c>
-      <c r="T2">
-        <v>30.749072880027889</v>
-      </c>
-      <c r="U2">
-        <v>5.3266002903771597</v>
-      </c>
-      <c r="V2">
-        <v>28.573923893611429</v>
-      </c>
-      <c r="W2">
-        <v>-5.4479688255051384</v>
-      </c>
-      <c r="X2">
-        <v>8.7795004892837287</v>
-      </c>
-      <c r="Y2">
-        <v>38.936720265302341</v>
-      </c>
-      <c r="Z2">
-        <v>21.694346045653933</v>
-      </c>
-      <c r="AA2">
-        <v>48.273731013594748</v>
-      </c>
-      <c r="AB2">
-        <v>35.746488979010586</v>
-      </c>
-      <c r="AC2">
-        <v>11.674763475210078</v>
-      </c>
-      <c r="AD2">
-        <v>55.439718466061791</v>
-      </c>
-      <c r="AE2">
-        <v>26.184537540368876</v>
-      </c>
-      <c r="AF2">
-        <v>28.924693421245017</v>
-      </c>
-      <c r="AG2">
-        <v>39.097237893727637</v>
-      </c>
-      <c r="AH2">
-        <v>33.778010152574176</v>
-      </c>
-      <c r="AI2">
-        <v>33.872113966529973</v>
-      </c>
-      <c r="AJ2">
-        <v>26.389791738136985</v>
-      </c>
-      <c r="AK2">
-        <v>31.951083866088105</v>
-      </c>
-      <c r="AL2">
-        <v>3.5609663570236672</v>
-      </c>
-      <c r="AM2">
-        <v>35.204401554562445</v>
-      </c>
       <c r="AO2">
-        <v>57.25613392912188</v>
+        <v>57.256133973392274</v>
       </c>
       <c r="AP2">
-        <v>35.474525359703549</v>
+        <v>35.474525282252849</v>
       </c>
       <c r="AR2">
-        <v>39.224145098567874</v>
+        <v>39.224145101243238</v>
       </c>
       <c r="AS2">
-        <v>52.260950780175733</v>
+        <v>52.260950618974825</v>
       </c>
       <c r="AT2">
-        <v>19.898126016543969</v>
+        <v>19.898126168002523</v>
       </c>
       <c r="AU2">
-        <v>18.89737413729344</v>
+        <v>18.897373827170703</v>
       </c>
       <c r="AV2">
-        <v>35.422974776422876</v>
+        <v>35.422974850635171</v>
       </c>
       <c r="AW2">
-        <v>16.305117900376342</v>
+        <v>16.305117680598283</v>
       </c>
       <c r="AX2">
-        <v>42.414198906382296</v>
+        <v>42.414198789350131</v>
       </c>
       <c r="AY2">
-        <v>51.016543512953852</v>
+        <v>51.016543420492845</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -650,154 +656,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>15.304330589090199</v>
+      </c>
+      <c r="C3">
+        <v>18.536683203508307</v>
+      </c>
+      <c r="D3">
+        <v>35.5408761611572</v>
+      </c>
+      <c r="E3">
+        <v>44.08193763869658</v>
+      </c>
+      <c r="F3">
+        <v>17.563431975034632</v>
+      </c>
+      <c r="G3">
+        <v>27.232225251025266</v>
+      </c>
+      <c r="H3">
+        <v>4.415425629762133</v>
+      </c>
+      <c r="I3">
+        <v>8.3856090355137543</v>
+      </c>
+      <c r="J3">
+        <v>32.208460956674038</v>
+      </c>
+      <c r="K3">
+        <v>49.191297995372388</v>
+      </c>
+      <c r="L3">
+        <v>38.831407511788989</v>
+      </c>
+      <c r="M3">
+        <v>0.1821946261483825</v>
+      </c>
+      <c r="N3">
         <v>20.682618561610106</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>-6.5016201590062561</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>34.788400817364625</v>
+      </c>
+      <c r="Q3">
+        <v>16.511123257647871</v>
+      </c>
+      <c r="R3">
+        <v>8.8332508674856403</v>
+      </c>
+      <c r="S3">
+        <v>31.230574214754554</v>
+      </c>
+      <c r="T3">
+        <v>36.766589166826627</v>
+      </c>
+      <c r="U3">
+        <v>20.204850097989365</v>
+      </c>
+      <c r="V3">
+        <v>29.292533081080791</v>
+      </c>
+      <c r="W3">
+        <v>4.6349072973228935</v>
+      </c>
+      <c r="X3">
+        <v>-1.1731183731298778</v>
+      </c>
+      <c r="Y3">
+        <v>41.560171419565144</v>
+      </c>
+      <c r="Z3">
+        <v>24.182805259278165</v>
+      </c>
+      <c r="AA3">
+        <v>46.180931932918448</v>
+      </c>
+      <c r="AB3">
+        <v>38.946432407119744</v>
+      </c>
+      <c r="AC3">
+        <v>54.003721694275463</v>
+      </c>
+      <c r="AD3">
+        <v>55.89410243198656</v>
+      </c>
+      <c r="AE3">
+        <v>47.390015822936419</v>
+      </c>
+      <c r="AF3">
+        <v>29.786205868886277</v>
+      </c>
+      <c r="AG3">
+        <v>25.366510842364555</v>
+      </c>
+      <c r="AH3">
+        <v>16.104184452462658</v>
+      </c>
+      <c r="AI3">
+        <v>37.958931640555413</v>
+      </c>
+      <c r="AJ3">
+        <v>61.134537172170852</v>
+      </c>
+      <c r="AK3">
+        <v>42.017909289557217</v>
+      </c>
+      <c r="AL3">
+        <v>23.929074687311633</v>
+      </c>
+      <c r="AM3">
         <v>31.903132892840148</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-0.7865532533276669</v>
       </c>
-      <c r="F3">
-        <v>17.563432028427655</v>
-      </c>
-      <c r="G3">
-        <v>27.232225284923061</v>
-      </c>
-      <c r="H3">
-        <v>4.4154256232615623</v>
-      </c>
-      <c r="I3">
-        <v>8.385609058501041</v>
-      </c>
-      <c r="J3">
-        <v>32.208461037824016</v>
-      </c>
-      <c r="K3">
-        <v>49.191298000751857</v>
-      </c>
-      <c r="L3">
-        <v>38.831407572293664</v>
-      </c>
-      <c r="M3">
-        <v>0.18247047152120938</v>
-      </c>
-      <c r="N3">
-        <v>20.682618568406106</v>
-      </c>
-      <c r="O3">
-        <v>-6.5016201552709072</v>
-      </c>
-      <c r="P3">
-        <v>34.788400899819536</v>
-      </c>
-      <c r="Q3">
-        <v>16.511123328863889</v>
-      </c>
-      <c r="R3">
-        <v>8.8332511008075034</v>
-      </c>
-      <c r="S3">
-        <v>31.230574268518296</v>
-      </c>
-      <c r="T3">
-        <v>36.76658922329392</v>
-      </c>
-      <c r="U3">
-        <v>20.204850153436961</v>
-      </c>
-      <c r="V3">
-        <v>29.292533038125214</v>
-      </c>
-      <c r="W3">
-        <v>4.6349073067002298</v>
-      </c>
-      <c r="X3">
-        <v>-1.1731183458703709</v>
-      </c>
-      <c r="Y3">
-        <v>41.560171507136495</v>
-      </c>
-      <c r="Z3">
-        <v>24.182805296150086</v>
-      </c>
-      <c r="AA3">
-        <v>46.180931859425293</v>
-      </c>
-      <c r="AB3">
-        <v>38.946432418176244</v>
-      </c>
-      <c r="AC3">
-        <v>54.003721922867065</v>
-      </c>
-      <c r="AD3">
-        <v>55.894102425583924</v>
-      </c>
-      <c r="AE3">
-        <v>47.390016064793208</v>
-      </c>
-      <c r="AF3">
-        <v>29.786205992537894</v>
-      </c>
-      <c r="AG3">
-        <v>25.366510923009685</v>
-      </c>
-      <c r="AH3">
-        <v>16.104184498934192</v>
-      </c>
-      <c r="AI3">
-        <v>37.958932026897607</v>
-      </c>
-      <c r="AJ3">
-        <v>61.134537357988897</v>
-      </c>
-      <c r="AK3">
-        <v>42.017909613591584</v>
-      </c>
-      <c r="AL3">
-        <v>23.929074797653684</v>
-      </c>
-      <c r="AM3">
-        <v>31.903133038044707</v>
-      </c>
-      <c r="AN3">
-        <v>-0.78655324373721969</v>
-      </c>
       <c r="AO3">
-        <v>55.376657253452436</v>
+        <v>55.376656873235277</v>
       </c>
       <c r="AP3">
-        <v>15.838754555460996</v>
+        <v>15.838754485640342</v>
       </c>
       <c r="AQ3">
-        <v>27.321245814219193</v>
+        <v>27.321245754272983</v>
       </c>
       <c r="AR3">
-        <v>47.320896723680384</v>
+        <v>47.320896748342989</v>
       </c>
       <c r="AS3">
-        <v>42.159062923933519</v>
+        <v>42.15906296076988</v>
       </c>
       <c r="AT3">
-        <v>34.057184261430329</v>
+        <v>34.05718411624116</v>
       </c>
       <c r="AU3">
-        <v>27.599381945584444</v>
+        <v>27.59938195430065</v>
       </c>
       <c r="AV3">
-        <v>28.199458695183814</v>
+        <v>28.199458482428085</v>
       </c>
       <c r="AW3">
-        <v>24.249452870870623</v>
+        <v>24.249451197550023</v>
       </c>
       <c r="AX3">
-        <v>23.050932492529718</v>
+        <v>23.050932109532056</v>
       </c>
       <c r="AY3">
-        <v>50.01575523501208</v>
+        <v>50.015755152753037</v>
       </c>
     </row>
   </sheetData>
